--- a/resources.xlsx
+++ b/resources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Resource</t>
   </si>
@@ -39,12 +39,6 @@
     <t>/accounts/{id}</t>
   </si>
   <si>
-    <t>/client</t>
-  </si>
-  <si>
-    <t>/client/{id}</t>
-  </si>
-  <si>
     <t>Returns a list of accounts</t>
   </si>
   <si>
@@ -54,15 +48,9 @@
     <t>Create a new account</t>
   </si>
   <si>
-    <t>Not allowed</t>
-  </si>
-  <si>
     <t>Bulk update of accounts</t>
   </si>
   <si>
-    <t>Delete all accounts</t>
-  </si>
-  <si>
     <t>Returns a list of clients</t>
   </si>
   <si>
@@ -81,13 +69,43 @@
     <t>Update a specific account</t>
   </si>
   <si>
-    <t>Delete a specific account</t>
-  </si>
-  <si>
-    <t>Delete a specific client</t>
-  </si>
-  <si>
-    <t>Delete all client</t>
+    <t>Returns the last transfers (30 days period)</t>
+  </si>
+  <si>
+    <t>Create a new transfer</t>
+  </si>
+  <si>
+    <t>Returns a specific transfer</t>
+  </si>
+  <si>
+    <t>Returns transfers from a specific date</t>
+  </si>
+  <si>
+    <t>Returns transfers from a specific account</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Note: As all these data are sensible, the DELETE operations are not allowed. Instead of that, we can add a DEACTIVATED status. This is out of scope at this moment. Some POST operation are not allowed because doesn't make sense changes at this kind of system for that information after creation.</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/{date}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/{id}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/{fromAccount}</t>
+  </si>
+  <si>
+    <t>/clients</t>
+  </si>
+  <si>
+    <t>/clients/{id}</t>
   </si>
 </sst>
 </file>
@@ -130,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -140,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
@@ -479,16 +500,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -496,53 +517,154 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -90,22 +90,22 @@
     <t>Note: As all these data are sensible, the DELETE operations are not allowed. Instead of that, we can add a DEACTIVATED status. This is out of scope at this moment. Some POST operation are not allowed because doesn't make sense changes at this kind of system for that information after creation.</t>
   </si>
   <si>
-    <t>/transactions/transfers/{date}</t>
-  </si>
-  <si>
     <t>/transactions/transfers</t>
   </si>
   <si>
     <t>/transactions/transfers/{id}</t>
   </si>
   <si>
-    <t>/transactions/transfers/{fromAccount}</t>
-  </si>
-  <si>
     <t>/clients</t>
   </si>
   <si>
     <t>/clients/{id}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/from/{date}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/account/{fromAccount}</t>
   </si>
 </sst>
 </file>
@@ -466,12 +466,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Resource</t>
   </si>
@@ -36,9 +36,6 @@
     <t>/accounts</t>
   </si>
   <si>
-    <t>/accounts/{id}</t>
-  </si>
-  <si>
     <t>Returns a list of accounts</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Create a new account</t>
   </si>
   <si>
-    <t>Bulk update of accounts</t>
-  </si>
-  <si>
     <t>Returns a list of clients</t>
   </si>
   <si>
@@ -60,52 +54,58 @@
     <t>Create a new client</t>
   </si>
   <si>
-    <t>Bulk update of clients</t>
-  </si>
-  <si>
     <t>Update a specific client</t>
   </si>
   <si>
-    <t>Update a specific account</t>
-  </si>
-  <si>
-    <t>Returns the last transfers (30 days period)</t>
-  </si>
-  <si>
     <t>Create a new transfer</t>
   </si>
   <si>
     <t>Returns a specific transfer</t>
   </si>
   <si>
-    <t>Returns transfers from a specific date</t>
-  </si>
-  <si>
     <t>Returns transfers from a specific account</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Note: As all these data are sensible, the DELETE operations are not allowed. Instead of that, we can add a DEACTIVATED status. This is out of scope at this moment. Some POST operation are not allowed because doesn't make sense changes at this kind of system for that information after creation.</t>
-  </si>
-  <si>
     <t>/transactions/transfers</t>
   </si>
   <si>
-    <t>/transactions/transfers/{id}</t>
-  </si>
-  <si>
     <t>/clients</t>
   </si>
   <si>
     <t>/clients/{id}</t>
   </si>
   <si>
-    <t>/transactions/transfers/from/{date}</t>
-  </si>
-  <si>
-    <t>/transactions/transfers/account/{fromAccount}</t>
+    <t>Delete a specific client only if this client doesn't have accounts registered</t>
+  </si>
+  <si>
+    <t>/accounts/{accountNumber}</t>
+  </si>
+  <si>
+    <t>Returns a list of transfers</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/{transactionId}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/from/{dateTransaction}</t>
+  </si>
+  <si>
+    <t>Returns transfers starting from a specific date</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/account/from/{accountNumber}</t>
+  </si>
+  <si>
+    <t>/transactions/transfers/account/to/{accountNumber}</t>
+  </si>
+  <si>
+    <t>Returns transfers to a specific account</t>
+  </si>
+  <si>
+    <t>Note: As all these data are sensible, the DELETE operations are not allowed for almost all entities. Instead of that, we can add a DEACTIVATED status. This is out of scope at this moment. Same to PUT operations, except to client.</t>
+  </si>
+  <si>
+    <t>Not allowed</t>
   </si>
 </sst>
 </file>
@@ -160,13 +160,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="TKTypeRegular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -174,6 +211,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Resource" dataDxfId="4"/>
+    <tableColumn id="2" name="GET" dataDxfId="3"/>
+    <tableColumn id="3" name="POST" dataDxfId="2"/>
+    <tableColumn id="4" name="PUT" dataDxfId="1"/>
+    <tableColumn id="5" name="DELETE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,19 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.09765625" customWidth="1"/>
+    <col min="2" max="2" width="35.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
@@ -500,148 +551,158 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -654,19 +715,15 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="A12:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
